--- a/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44EB3BAB-E588-49ED-9418-AE0B1CF393EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54A7915-67D1-4DC2-976D-D0870005475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAB8A015-50B3-4E43-B5A2-BE7A958DDB61}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4FFCA94-F38C-4A28-B6C7-F175114089C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,67 +194,61 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>91,44%</t>
+    <t>91,42%</t>
   </si>
   <si>
     <t>93,81%</t>
@@ -263,16 +257,16 @@
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -281,16 +275,16 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>8,56%</t>
+    <t>8,58%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B1C380-31BF-4DE3-B314-101AAF9BBCE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D303D7-83F8-4A93-A0C9-31D9F546C1D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1175,7 +1169,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1184,13 @@
         <v>34997</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -1205,13 +1199,13 @@
         <v>42462</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -1220,13 +1214,13 @@
         <v>77459</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,10 +1291,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>4592</v>
@@ -1309,13 +1303,13 @@
         <v>3277532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>7473</v>
@@ -1324,13 +1318,13 @@
         <v>6184812</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,10 +1342,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -1360,13 +1354,13 @@
         <v>252022</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
@@ -1375,13 +1369,13 @@
         <v>484334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54A7915-67D1-4DC2-976D-D0870005475D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4360449-7053-497C-824B-E2133E756FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4FFCA94-F38C-4A28-B6C7-F175114089C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1984A3-67B5-4787-9070-04081B382AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D303D7-83F8-4A93-A0C9-31D9F546C1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE166C-879F-4E09-812E-EF7D0108C37E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4360449-7053-497C-824B-E2133E756FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2E52A0-22F1-4E47-A3D4-83A7D6808B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD1984A3-67B5-4787-9070-04081B382AF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1712AA8-8BB9-4A50-BC7C-E622B020212E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>92,6%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,61 +194,67 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>92,91%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>6,07%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>91,42%</t>
+    <t>91,44%</t>
   </si>
   <si>
     <t>93,81%</t>
@@ -257,16 +263,16 @@
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>7,14%</t>
@@ -275,16 +281,16 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>8,58%</t>
+    <t>8,56%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE166C-879F-4E09-812E-EF7D0108C37E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B474F26-7D5A-4A6F-AB08-C2B9AF3CFF96}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1169,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1190,13 @@
         <v>34997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -1199,13 +1205,13 @@
         <v>42462</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -1214,13 +1220,13 @@
         <v>77459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,10 +1297,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>4592</v>
@@ -1303,13 +1309,13 @@
         <v>3277532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>7473</v>
@@ -1318,13 +1324,13 @@
         <v>6184812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,10 +1348,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -1354,13 +1360,13 @@
         <v>252022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
@@ -1369,13 +1375,13 @@
         <v>484334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E2E52A0-22F1-4E47-A3D4-83A7D6808B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C15FE5-10D7-4B67-B523-190B529DE17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1712AA8-8BB9-4A50-BC7C-E622B020212E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{196BF9AB-DFC4-4EE8-9D9E-5CA19C4FFD60}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -71,142 +71,142 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>14,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>94,29%</t>
@@ -215,82 +215,88 @@
     <t>92,97%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B474F26-7D5A-4A6F-AB08-C2B9AF3CFF96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAF9A63-C0D4-48AD-AA5D-E53D474A774D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +832,7 @@
         <v>514</v>
       </c>
       <c r="D4" s="7">
-        <v>410874</v>
+        <v>393165</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +847,7 @@
         <v>1075</v>
       </c>
       <c r="I4" s="7">
-        <v>637904</v>
+        <v>576701</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>1589</v>
       </c>
       <c r="N4" s="7">
-        <v>1048778</v>
+        <v>969866</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +883,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>43623</v>
+        <v>42026</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +898,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>54925</v>
+        <v>50627</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>145</v>
       </c>
       <c r="N5" s="7">
-        <v>98548</v>
+        <v>92653</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +934,7 @@
         <v>567</v>
       </c>
       <c r="D6" s="7">
-        <v>454497</v>
+        <v>435191</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +949,7 @@
         <v>1167</v>
       </c>
       <c r="I6" s="7">
-        <v>692829</v>
+        <v>627328</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>1734</v>
       </c>
       <c r="N6" s="7">
-        <v>1147326</v>
+        <v>1062519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +987,7 @@
         <v>1744</v>
       </c>
       <c r="D7" s="7">
-        <v>1875863</v>
+        <v>2012396</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +1002,7 @@
         <v>2598</v>
       </c>
       <c r="I7" s="7">
-        <v>1982179</v>
+        <v>1913090</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>4342</v>
       </c>
       <c r="N7" s="7">
-        <v>3858041</v>
+        <v>3925485</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1038,7 @@
         <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>153693</v>
+        <v>155328</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1053,7 @@
         <v>204</v>
       </c>
       <c r="I8" s="7">
-        <v>154634</v>
+        <v>200349</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>347</v>
       </c>
       <c r="N8" s="7">
-        <v>308328</v>
+        <v>355678</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1089,7 @@
         <v>1887</v>
       </c>
       <c r="D9" s="7">
-        <v>2029556</v>
+        <v>2167724</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1104,7 @@
         <v>2802</v>
       </c>
       <c r="I9" s="7">
-        <v>2136813</v>
+        <v>2113439</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>4689</v>
       </c>
       <c r="N9" s="7">
-        <v>4166369</v>
+        <v>4281163</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1142,7 @@
         <v>623</v>
       </c>
       <c r="D10" s="7">
-        <v>620543</v>
+        <v>596583</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1157,7 @@
         <v>919</v>
       </c>
       <c r="I10" s="7">
-        <v>657449</v>
+        <v>608385</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1172,7 @@
         <v>1542</v>
       </c>
       <c r="N10" s="7">
-        <v>1277992</v>
+        <v>1204968</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1187,7 +1193,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>34997</v>
+        <v>33964</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1202,7 +1208,7 @@
         <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>42462</v>
+        <v>39008</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1217,7 +1223,7 @@
         <v>102</v>
       </c>
       <c r="N11" s="7">
-        <v>77459</v>
+        <v>72973</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1238,7 +1244,7 @@
         <v>663</v>
       </c>
       <c r="D12" s="7">
-        <v>655540</v>
+        <v>630547</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1259,7 @@
         <v>981</v>
       </c>
       <c r="I12" s="7">
-        <v>699911</v>
+        <v>647393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>1644</v>
       </c>
       <c r="N12" s="7">
-        <v>1355451</v>
+        <v>1277941</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1297,46 @@
         <v>2881</v>
       </c>
       <c r="D13" s="7">
-        <v>2907280</v>
+        <v>3002144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4592</v>
       </c>
       <c r="I13" s="7">
-        <v>3277532</v>
+        <v>3098175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>7473</v>
       </c>
       <c r="N13" s="7">
-        <v>6184812</v>
+        <v>6100320</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1348,46 @@
         <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>232313</v>
+        <v>231318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
       </c>
       <c r="I14" s="7">
-        <v>252022</v>
+        <v>289985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>484334</v>
+        <v>521303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1399,7 @@
         <v>3117</v>
       </c>
       <c r="D15" s="7">
-        <v>3139593</v>
+        <v>3233462</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1414,7 @@
         <v>4950</v>
       </c>
       <c r="I15" s="7">
-        <v>3529554</v>
+        <v>3388160</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>8067</v>
       </c>
       <c r="N15" s="7">
-        <v>6669146</v>
+        <v>6621623</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
